--- a/excel-files/four.xlsx
+++ b/excel-files/four.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Powered by GrapeCity SpreadJS.</t>
   </si>
@@ -49,28 +49,16 @@
     <t>Email us.sales@grapecity.com.</t>
   </si>
   <si>
-    <t>nova</t>
-  </si>
-  <si>
-    <t>pins</t>
-  </si>
-  <si>
-    <t>fist</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
     <t>news</t>
   </si>
   <si>
+    <t>mine</t>
+  </si>
+  <si>
     <t>test</t>
   </si>
   <si>
-    <t>bank</t>
-  </si>
-  <si>
-    <t>lost</t>
+    <t>love</t>
   </si>
 </sst>
 </file>
@@ -419,7 +407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{C8B45068-041D-104F-6608-4EF8783BCA08}" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{C0262F68-1602-5A16-C0B8-98E58EDEEB39}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -453,11 +441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{0BA57A62-6364-8F48-8FCC-57B28BC6A2FC}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:A544"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{1961DA18-2BA8-2E53-D868-EEB8148E3608}" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0" tabSelected="1">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0" tabSelected="1">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultRowHeight="14.4525"/>
@@ -467,39 +455,19 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25">
+    <row customHeight="1" ht="14.4525">
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25">
+    <row customHeight="1" ht="14.4525">
       <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25">
+    <row customHeight="1" ht="14.4525">
       <c r="A4" s="0" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.25">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.25">
-      <c r="A6" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.25">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.25">
-      <c r="A8" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
